--- a/samples/teacup/teacup_mdl.xlsx
+++ b/samples/teacup/teacup_mdl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Variable</t>
   </si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>The model is only valid for the liquid phase of tea. While the tea could theoretically freeze or boil off, we would want an error to be thrown in these cases so that the modeler can identify the issue and decide whether to expand the model. Of course, this refers to standard sea-level conditions...</t>
+  </si>
+  <si>
+    <t>FINAL TIME</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>The final time for the simulation.</t>
+  </si>
+  <si>
+    <t>INITIAL TIME</t>
+  </si>
+  <si>
+    <t>The initial time for the simulation.</t>
+  </si>
+  <si>
+    <t>SAVEPER</t>
+  </si>
+  <si>
+    <t>TIME STEP</t>
+  </si>
+  <si>
+    <t>The frequency with which output is stored.</t>
+  </si>
+  <si>
+    <t>The time step for the simulation.</t>
   </si>
 </sst>
 </file>
@@ -101,11 +128,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <u/>
@@ -121,6 +143,12 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -143,15 +171,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -487,121 +515,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="79.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="79.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>70</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>-459.67</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="61">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
